--- a/medicine/Psychotrope/Asahi_Breweries/Asahi_Breweries.xlsx
+++ b/medicine/Psychotrope/Asahi_Breweries/Asahi_Breweries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Asahi Breweries, Ltd. (アサヒビール株式会社, Asahi bīru kabushiki gaisha?) est un groupe brassicole du Japon fondé en 1889 à Osaka. Asahi se classe au septième rang mondial en termes de ventes en volume avec une part de marché de 3 %. En 2018, les ventes d'Asahi s'élevaient à plus de 2 billions de yens (18,6 milliards de dollars), tandis que la marge bénéficiaire stagnait à 10%. Asahi est poussé vers les acquisitions par un sentiment de crise face à la contraction du marché intérieur.
@@ -513,16 +525,18 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première bière Asahi date de 1892.
 À partir de 1987, la Dry sensō (ドライ戦争?, « guerre dry ») fait rage, à la suite de l'invention et de la commercialisation de l'Asahi Super Dry, première bière dry. Kirin répondit à Asahi en lançant un produit concurrent (Kirin Dry) en 1988 suivi par Sapporo (avec Sapporo Dry) et Suntory (Suntory Dry). Mais Asahi devait conserver son monopole (et étendre sa part de marché de 10 à 40 %.
-En 2009, Asahi rachète Schweppes Australia et 19,9 % du Chinois Tsingtao[3] à Anheuser-Busch InBev pour $667 millions.
-En 2011, Asahi acquiert les marques Charlie's (Nouvelle-Zélande) et Vodka Cruiser pour ¥97.6 milliards[4].
-En février 2016, Asahi fait une offre d'acquisition de 2,55 milliards de dollars pour reprendre à SABMiller les marques Peroni, Grolsch, Meantime et les actifs associés ; ce dernier s'en sépare pour satisfaire aux exigences des autorités de la concurrence dans le cadre de son acquisition par Anheuser-Busch InBev[5].
-En décembre 2016, Asahi annonce l'acquisition pour 7,8 milliards de dollars des activités en Europe centrale et de l'Est de SABMiller, à la suite de l'acquisition par ce dernier par Anheuser-Busch InBev. Ces activités comprennent les marques : Pilsner Urquell, Tyskie, Lecher, Dreier[6],[7]. En décembre 2017, Asashi vend sa participation de 19,99 % dans l'entreprise brassicole Tsingtao pour 937 millions de dollars, participation vendue principalement à Fosun International[8].
-En janvier 2019, Asahi annonce l'acquisition pour 250 millions de livres des activités de boissons de l'entreprise britannique Fuller’s, qui se concentre sur ses activités hôtelières et de pub. Cette acquisition inclut les marques London Pride et Frontier Premium London Lager[9].
-En juillet 2019, AB InBev annonce la vente de ses activités en Australie à Asahi Breweries pour 11,3 milliards de dollars[10].
+En 2009, Asahi rachète Schweppes Australia et 19,9 % du Chinois Tsingtao à Anheuser-Busch InBev pour $667 millions.
+En 2011, Asahi acquiert les marques Charlie's (Nouvelle-Zélande) et Vodka Cruiser pour ¥97.6 milliards.
+En février 2016, Asahi fait une offre d'acquisition de 2,55 milliards de dollars pour reprendre à SABMiller les marques Peroni, Grolsch, Meantime et les actifs associés ; ce dernier s'en sépare pour satisfaire aux exigences des autorités de la concurrence dans le cadre de son acquisition par Anheuser-Busch InBev.
+En décembre 2016, Asahi annonce l'acquisition pour 7,8 milliards de dollars des activités en Europe centrale et de l'Est de SABMiller, à la suite de l'acquisition par ce dernier par Anheuser-Busch InBev. Ces activités comprennent les marques : Pilsner Urquell, Tyskie, Lecher, Dreier,. En décembre 2017, Asashi vend sa participation de 19,99 % dans l'entreprise brassicole Tsingtao pour 937 millions de dollars, participation vendue principalement à Fosun International.
+En janvier 2019, Asahi annonce l'acquisition pour 250 millions de livres des activités de boissons de l'entreprise britannique Fuller’s, qui se concentre sur ses activités hôtelières et de pub. Cette acquisition inclut les marques London Pride et Frontier Premium London Lager.
+En juillet 2019, AB InBev annonce la vente de ses activités en Australie à Asahi Breweries pour 11,3 milliards de dollars.
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Production actuelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ils  produisent notamment depuis 1987 :
 Asahi Super Dry, l'une des marques de bière les plus consommées au Japon avec Sapporo et Kirin
@@ -561,9 +577,43 @@
 Asahi Black - Lager
 Asahi Prime Time - Pilsener
 Asahi Orion
-Asahi Gift
-Autres marques de bière
-Pilsner Urquell
+Asahi Gift</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asahi_Breweries</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asahi_Breweries</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Production actuelle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres marques de bière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pilsner Urquell
 Tyskie
 Lecher
 Dreier
@@ -573,31 +623,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Asahi_Breweries</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Asahi_Breweries</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe possède des filiales actives dans d'autres secteurs, dont Nikka Whisky. Il a pu participer aussi à la production de films, dont Solar Crisis.
 </t>
